--- a/CSV/progs full.xlsx
+++ b/CSV/progs full.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan Uni\Documents\github\hackz\CSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5050396D-0FD3-4574-873F-2A18614FF334}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205A8711-8063-4DFC-8145-19541E5807E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="kali-tag-desc" sheetId="1" r:id="rId1"/>
@@ -3006,7 +3006,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3854,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D315"/>
   <sheetViews>
     <sheetView topLeftCell="A292" workbookViewId="0">
@@ -5106,7 +5106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="403.2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>231</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" ht="331.2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>401</v>
       </c>
@@ -6272,7 +6272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>439</v>
       </c>
@@ -7334,7 +7334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14207,11 +14207,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E456"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A443" workbookViewId="0">
-      <selection activeCell="D456" sqref="D456"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H458" sqref="H458"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
